--- a/py26_18day/py26_test_project/data/cases.xlsx
+++ b/py26_18day/py26_test_project/data/cases.xlsx
@@ -1,317 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15348" windowHeight="8172" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15348" windowHeight="8172" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="register" sheetId="2" r:id="rId2"/>
-    <sheet name="musen" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="musen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>reslut</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>("python26", "lemonban")</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "登录成功"}</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>("python26", "123")</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "账号或密码不正确"}</t>
-  </si>
-  <si>
-    <t>账户名错误</t>
-  </si>
-  <si>
-    <t>("python", "lemonban")</t>
-  </si>
-  <si>
-    <t>账号为空</t>
-  </si>
-  <si>
-    <t>(None, "lemonban")</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>('python26', None)</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>正常注册</t>
-  </si>
-  <si>
-    <t>('python1', '123456', '123456')</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "注册成功"}</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>两次密码不一致</t>
-  </si>
-  <si>
-    <t>('python2', '1234567', '123456')</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "两次密码不一致"}</t>
-  </si>
-  <si>
-    <t>账号已存在</t>
-  </si>
-  <si>
-    <t>('python1', '1234567', '123456')</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "该账户已存在"}</t>
-  </si>
-  <si>
-    <t>密码少于6位</t>
-  </si>
-  <si>
-    <t>('python123', '12345', '12345')</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
-  </si>
-  <si>
-    <t>密码大于18位</t>
-  </si>
-  <si>
-    <t>('python21', '1234561234561234567', '1234561234561234567')</t>
-  </si>
-  <si>
-    <t>账号少于6位</t>
-  </si>
-  <si>
-    <t>('py01', '1234567', '1234567')</t>
-  </si>
-  <si>
-    <t>账号大于18位</t>
-  </si>
-  <si>
-    <t>('python1234561234567', '1234567', '1234567')</t>
-  </si>
-  <si>
-    <t>未通过</t>
-  </si>
-  <si>
-    <t>python26期大佬666</t>
-  </si>
-  <si>
-    <t>大佬很多</t>
-  </si>
-  <si>
-    <t>大佬9口罩很多</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -612,153 +476,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -812,11 +676,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1076,328 +935,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="27.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="47.2222222222222" customWidth="1"/>
+    <col width="13.2222222222222" customWidth="1" min="2" max="2"/>
+    <col width="27.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="47.2222222222222" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>reslut</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>("python26", "lemonban")</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "登录成功"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>密码错误</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>("python26", "123")</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "账号或密码不正确"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>账户名错误</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>("python", "lemonban")</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "账号或密码不正确"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>账号为空</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(None, "lemonban")</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>('python26', None)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="$A9:$XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="32.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="50.1111111111111" customWidth="1"/>
+    <col width="15.2222222222222" customWidth="1" min="2" max="2"/>
+    <col width="32.7777777777778" customWidth="1" min="3" max="3"/>
+    <col width="50.1111111111111" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>正常注册</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>('python1', '123456', '123456')</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{"code": 1, "msg": "注册成功"}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>两次密码不一致</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>('python2', '1234567', '123456')</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "两次密码不一致"}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>账号已存在</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>('python1', '1234567', '123456')</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "该账户已存在"}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>密码少于6位</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>('python123', '12345', '12345')</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>密码大于18位</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>('python21', '1234561234561234567', '1234561234561234567')</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>账号少于6位</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>('py01', '1234567', '1234567')</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>账号大于18位</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>('python1234561234567', '1234567', '1234567')</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{"code": 0, "msg": "账号和密码必须在6-18位之间"}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B4:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <sheetData>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>python26期大佬666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大佬很多</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大佬9口罩很多</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>